--- a/Docs/09 Project Management/标准工时制作管理系统报价明细.xlsx
+++ b/Docs/09 Project Management/标准工时制作管理系统报价明细.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cn003387\Desktop\标准时间分析(MOST)业务流程改革\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF70DF66-487F-445C-BAC3-D86EA6A992AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="系统开发报价明细分析表" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>工数</t>
   </si>
@@ -66,15 +60,6 @@
     <t>一</t>
   </si>
   <si>
-    <t>要件定义</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  需求调查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  要件定义</t>
-  </si>
-  <si>
     <t>小计</t>
   </si>
   <si>
@@ -82,40 +67,6 @@
   </si>
   <si>
     <t>构筑</t>
-  </si>
-  <si>
-    <t>出货停止票</t>
-  </si>
-  <si>
-    <t>新增出货停止计划页面（需要停止的对象可能是未来一个月生产的，甚至更长。）</t>
-  </si>
-  <si>
-    <t>设置相关人员进行停止计划，通过提前设定生产日期区间（生产结束日期可以为空）、机种系列、机种、方向，系统定时自动运行，从Monosys获取对应SN作为停止对象。</t>
-  </si>
-  <si>
-    <t>修改现有出货停止票功能，机种担当启票前，指定（生产日期、机种系列），或（生产日期、机种系列、机种），或（生产日期、机种系列、机种、方向）停止计划，在部课长审批页面可查看停止计划明细，审批通过后停止计划开始生效。</t>
-  </si>
-  <si>
-    <t>系统定时自动运行，抓取停止票中手动指定的SN明细，以及根据出货停止计划从Monosys抓取的SN，与SAP ShareDB关联，生成对应的3PL停止数据。</t>
-  </si>
-  <si>
-    <t>手动启动出货停止票时，针对SN明细，可指定正方向或反方向（默认正方向）。</t>
-  </si>
-  <si>
-    <t>出货解除票</t>
-  </si>
-  <si>
-    <t>修改现有出货解除票功能，机种担当启票前，指定（生产日期、机种系列），或（生产日期、机种系列、机种），或（生产日期、机种系列、机种、方向），从SAP和MONOSYS获取SN后，生成对应的3PL数据。</t>
-  </si>
-  <si>
-    <t>系统解除启票中对应的单位（机种系列、机种、方向）的出货停止计划。
-备注：机种担当启票时增加提示：如果有明确SN请上传明细后启票。特殊情形，BSH锁库机也会出货解除。</t>
-  </si>
-  <si>
-    <t>QA出货判定</t>
-  </si>
-  <si>
-    <t>LOT出货判定票，若存在出货停止计划中指定的对象，以出货停止计划设定条件为单位判定为NG，其他对象按照原有逻辑执行。</t>
   </si>
   <si>
     <t>报价</t>
@@ -169,13 +120,234 @@
   </si>
   <si>
     <t>标准工时制作管理系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求说明书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求调查</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>要件定义</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OU(组织机构)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架、角色、权限</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机种系列/机种</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>工位类型/工位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产阶段</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治工具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字/衔接词</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用指标组合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺组合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表/报表组</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批结果</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规字典表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增分析表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑权限控制</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺录入界面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手顺录入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标录入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表行编辑功能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表数据存储</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本修订</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析表报表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人机联合表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Collection - 工位时间表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表审批</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登录/登出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/修改密码</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection - Compare表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection - MOST Value 表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection - Revision History 表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report - Total表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report - 拖机Total表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report - 时间联络表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process List 表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准时间表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准工数表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>履历表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手册和培训</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护手册</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场培训</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00"/>
@@ -183,7 +355,7 @@
     <numFmt numFmtId="179" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +415,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -474,30 +669,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -641,6 +812,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -656,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,9 +876,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -747,9 +930,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -768,59 +948,113 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -828,45 +1062,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="標準 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2 2" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 2" xfId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -891,7 +1107,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1164,32 +1380,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9.375"/>
-    <col min="15" max="15" width="12.625"/>
+    <col min="14" max="14" width="9.33203125"/>
+    <col min="15" max="15" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
@@ -1203,621 +1419,1912 @@
       <c r="L1" s="62"/>
       <c r="M1" s="62"/>
     </row>
-    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="M2" s="27">
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="M2" s="26">
         <v>43730</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="63" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="47"/>
-    </row>
-    <row r="4" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="29" t="s">
+      <c r="L4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="73"/>
+    </row>
+    <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="3">
         <v>13</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3">
-        <v>4</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="17">
-        <v>4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4</v>
-      </c>
-      <c r="K6" s="17">
-        <v>4</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="65"/>
-    </row>
-    <row r="7" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="3">
+        <f t="shared" ref="I6:I9" si="0">SUM(E6:H6)</f>
+        <v>13</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>29</v>
+      </c>
+      <c r="D7" s="57"/>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="17">
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K7" s="17">
+      <c r="J8" s="3"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="66"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="3">
-        <f>SUM(I6:I7)</f>
-        <v>9</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3">
-        <f>SUM(K6:K7)</f>
-        <v>9</v>
-      </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="31"/>
-    </row>
-    <row r="9" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="2:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="15">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
-        <v>6</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <f>E10+F10+G10+H10</f>
-        <v>10.5</v>
-      </c>
-      <c r="J10" s="33">
-        <v>9.5</v>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="74"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <f>SUM(E6:E9)</f>
+        <v>26</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10:I10" si="1">SUM(F6:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="65"/>
-    </row>
-    <row r="11" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15">
+        <f>SUM(K6:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>1200</v>
+      </c>
+      <c r="M10" s="29">
+        <f>I10*L10</f>
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16">
+        <f>F12/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="16">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
-        <v>6</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="17">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" ref="I11:I17" si="0">E11+F11+G11+H11</f>
-        <v>10.5</v>
-      </c>
-      <c r="J11" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="66"/>
-    </row>
-    <row r="12" spans="2:13" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="15">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
-        <v>6</v>
-      </c>
-      <c r="G12" s="17">
-        <v>2</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2</v>
+      <c r="G12" s="16">
+        <f>F12*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="16">
+        <f>F12*0.3</f>
+        <v>1.2</v>
       </c>
       <c r="I12" s="3">
         <f>SUM(E12:H12)</f>
+        <v>7.2</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="65">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B13" s="14">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16">
+        <f t="shared" ref="E13:E53" si="2">F13/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" ref="G13" si="3">F13*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" ref="H13:H53" si="4">F13*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" ref="I13:I53" si="5">SUM(E13:H13)</f>
+        <v>3.6</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="74"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" ref="G14" si="6">F14*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B15" s="14">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" ref="G15" si="7">F15*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="74"/>
+    </row>
+    <row r="16" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B16" s="14">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" ref="G16" si="8">F16*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B17" s="14">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16">
+        <f>ROUNDDOWN(F17/5, 1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" ref="G17" si="9">F17*0.3</f>
+        <v>0.15</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="74"/>
+    </row>
+    <row r="18" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
         <v>11</v>
       </c>
-      <c r="J12" s="33">
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" ref="G18" si="10">F18*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" ref="G19" si="11">F19*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H19" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="74"/>
+    </row>
+    <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B20" s="14">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" ref="G20" si="12">F20*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="74"/>
+    </row>
+    <row r="21" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B21" s="14">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" ref="G21" si="13">F21*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="74"/>
+    </row>
+    <row r="22" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B22" s="14">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="16">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" ref="G22" si="14">F22*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="74"/>
+    </row>
+    <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B23" s="14">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="16">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" ref="G23" si="15">F23*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="74"/>
+    </row>
+    <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B24" s="14">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" ref="G24" si="16">F24*0.3</f>
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="74"/>
+    </row>
+    <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" ref="G25" si="17">F25*0.3</f>
+        <v>0.15</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="74"/>
+    </row>
+    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B26" s="14">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" ref="G26" si="18">F26*0.3</f>
+        <v>0.15</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="74"/>
+    </row>
+    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B27" s="14">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" ref="G27" si="19">F27*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="74"/>
+    </row>
+    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B28" s="14">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" ref="G28" si="20">F28*0.3</f>
+        <v>0.3</v>
+      </c>
+      <c r="H28" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="74"/>
+    </row>
+    <row r="29" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B29" s="14">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" ref="G29" si="21">F29*0.3</f>
+        <v>0.15</v>
+      </c>
+      <c r="H29" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="74"/>
+    </row>
+    <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" ref="G30" si="22">F30*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J30" s="31"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="74"/>
+    </row>
+    <row r="31" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="16">
+        <v>6</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" ref="G31" si="23">F31*0.3</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="H31" s="16">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="5"/>
+        <v>10.8</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="74"/>
+    </row>
+    <row r="32" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B32" s="14">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" ref="G32" si="24">F32*0.3</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H32" s="16">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="74"/>
+    </row>
+    <row r="33" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="F33" s="16">
+        <v>4</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" ref="G33" si="25">F33*0.3</f>
+        <v>1.2</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="5"/>
+        <v>7.2</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="74"/>
+    </row>
+    <row r="34" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" ref="G34" si="26">F34*0.3</f>
+        <v>0.75</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="74"/>
+    </row>
+    <row r="35" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="16">
+        <v>2</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" ref="G35" si="27">F35*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H35" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="74"/>
+    </row>
+    <row r="36" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="16">
+        <v>2</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" ref="G36" si="28">F36*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H36" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="74"/>
+    </row>
+    <row r="37" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="16">
+        <f t="shared" ref="G37" si="29">F37*0.3</f>
+        <v>0.15</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="J37" s="31"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="74"/>
+    </row>
+    <row r="38" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F38" s="16">
+        <v>2</v>
+      </c>
+      <c r="G38" s="16">
+        <f t="shared" ref="G38" si="30">F38*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="74"/>
+    </row>
+    <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="16">
+        <v>2</v>
+      </c>
+      <c r="G39" s="16">
+        <f t="shared" ref="G39" si="31">F39*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="74"/>
+    </row>
+    <row r="40" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
+        <v>33</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F40" s="16">
+        <v>2</v>
+      </c>
+      <c r="G40" s="16">
+        <f t="shared" ref="G40" si="32">F40*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="74"/>
+    </row>
+    <row r="41" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
+        <v>34</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F41" s="16">
+        <v>2</v>
+      </c>
+      <c r="G41" s="16">
+        <f t="shared" ref="G41" si="33">F41*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J41" s="31"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="74"/>
+    </row>
+    <row r="42" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
+        <v>35</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F42" s="16">
+        <v>2</v>
+      </c>
+      <c r="G42" s="16">
+        <f t="shared" ref="G42" si="34">F42*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="74"/>
+    </row>
+    <row r="43" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <v>36</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F43" s="16">
+        <v>2</v>
+      </c>
+      <c r="G43" s="16">
+        <f t="shared" ref="G43" si="35">F43*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J43" s="31"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="74"/>
+    </row>
+    <row r="44" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>37</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F44" s="16">
+        <v>2</v>
+      </c>
+      <c r="G44" s="16">
+        <f t="shared" ref="G44" si="36">F44*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J44" s="31"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="74"/>
+    </row>
+    <row r="45" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
+        <v>38</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F45" s="16">
+        <v>2</v>
+      </c>
+      <c r="G45" s="16">
+        <f t="shared" ref="G45" si="37">F45*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J45" s="31"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="74"/>
+    </row>
+    <row r="46" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
+        <v>39</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F46" s="16">
+        <v>2</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" ref="G46" si="38">F46*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H46" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J46" s="31"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="74"/>
+    </row>
+    <row r="47" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
+        <v>40</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F47" s="16">
+        <v>2</v>
+      </c>
+      <c r="G47" s="16">
+        <f t="shared" ref="G47" si="39">F47*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H47" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="74"/>
+    </row>
+    <row r="48" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
+        <v>41</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F48" s="16">
+        <v>2</v>
+      </c>
+      <c r="G48" s="16">
+        <f t="shared" ref="G48" si="40">F48*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="74"/>
+    </row>
+    <row r="49" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
+        <v>42</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F49" s="16">
+        <v>2</v>
+      </c>
+      <c r="G49" s="16">
+        <f t="shared" ref="G49" si="41">F49*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J49" s="31"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="74"/>
+    </row>
+    <row r="50" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
+        <v>43</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F50" s="16">
+        <v>2</v>
+      </c>
+      <c r="G50" s="16">
+        <f t="shared" ref="G50" si="42">F50*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H50" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J50" s="31"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="74"/>
+    </row>
+    <row r="51" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B51" s="14">
+        <v>44</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="16">
+        <v>3</v>
+      </c>
+      <c r="G51" s="16">
+        <f t="shared" ref="G51" si="43">F51*0.3</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H51" s="16">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="74"/>
+    </row>
+    <row r="52" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
+        <v>45</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="F52" s="16">
+        <v>3</v>
+      </c>
+      <c r="G52" s="16">
+        <f t="shared" ref="G52" si="44">F52*0.3</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+      <c r="J52" s="31"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="74"/>
+    </row>
+    <row r="53" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <v>46</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F53" s="16">
+        <v>2</v>
+      </c>
+      <c r="G53" s="16">
+        <f t="shared" ref="G53" si="45">F53*0.3</f>
+        <v>0.6</v>
+      </c>
+      <c r="H53" s="16">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="J53" s="31"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="74"/>
+    </row>
+    <row r="54" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3">
+        <f>SUM(E12:E53)</f>
+        <v>15.500000000000005</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" ref="F54:I54" si="46">SUM(F12:F53)</f>
+        <v>77.5</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="46"/>
+        <v>23.250000000000007</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="46"/>
+        <v>23.250000000000007</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="46"/>
+        <v>139.49999999999991</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="20">
+        <v>1200</v>
+      </c>
+      <c r="M54" s="29">
+        <f>I54*L54</f>
+        <v>167399.99999999988</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="76"/>
+    </row>
+    <row r="56" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="56"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="76"/>
+    </row>
+    <row r="57" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
+        <v>47</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="57"/>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
+        <f t="shared" ref="I57:I60" si="47">SUM(E57:H57)</f>
+        <v>3</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="77"/>
+    </row>
+    <row r="58" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="9">
+        <v>48</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="57"/>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="77"/>
+    </row>
+    <row r="59" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <v>49</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="57"/>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="77"/>
+    </row>
+    <row r="60" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>50</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="57"/>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="77"/>
+    </row>
+    <row r="61" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="3">
+        <f>SUM(E57:E60)</f>
         <v>10</v>
       </c>
-      <c r="K12" s="3">
+      <c r="F61" s="3">
+        <f t="shared" ref="F61:I61" si="48">SUM(F57:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="66"/>
-    </row>
-    <row r="13" spans="2:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="J61" s="32"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="20">
+        <v>1200</v>
+      </c>
+      <c r="M61" s="29">
+        <f>I61*L61</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="30"/>
+    </row>
+    <row r="63" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="34"/>
+    </row>
+    <row r="64" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="37"/>
+    </row>
+    <row r="66" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="52"/>
+    </row>
+    <row r="67" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="52"/>
+    </row>
+    <row r="68" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K70" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17">
-        <v>6</v>
-      </c>
-      <c r="G13" s="17">
-        <v>2</v>
-      </c>
-      <c r="H13" s="17">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J13" s="33">
-        <v>11</v>
-      </c>
-      <c r="K13" s="3">
-        <v>11</v>
-      </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="66"/>
-    </row>
-    <row r="14" spans="2:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="17">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>10</v>
-      </c>
-      <c r="G14" s="17">
-        <v>4</v>
-      </c>
-      <c r="H14" s="17">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J14" s="33">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3">
-        <v>17</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="66"/>
-    </row>
-    <row r="15" spans="2:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="17">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17">
-        <v>6</v>
-      </c>
-      <c r="G15" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H15" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="33">
-        <v>9</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="66"/>
-    </row>
-    <row r="16" spans="2:13" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
-        <v>6</v>
-      </c>
-      <c r="G16" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="H16" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="33">
-        <v>9</v>
-      </c>
-      <c r="K16" s="3">
-        <v>9</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="66"/>
-    </row>
-    <row r="17" spans="2:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="17">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="17">
-        <v>3</v>
-      </c>
-      <c r="H17" s="17">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J17" s="33">
-        <v>18</v>
-      </c>
-      <c r="K17" s="3">
-        <v>18</v>
-      </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="66"/>
-    </row>
-    <row r="18" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3">
-        <v>50</v>
-      </c>
-      <c r="G18" s="3">
-        <v>16</v>
-      </c>
-      <c r="H18" s="3">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3">
-        <f>SUM(I10:I17)</f>
-        <v>100</v>
-      </c>
-      <c r="J18" s="34">
-        <f>SUM(J10:J17)</f>
-        <v>93</v>
-      </c>
-      <c r="K18" s="3">
-        <v>93</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="36"/>
-    </row>
-    <row r="21" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="36"/>
-    </row>
-    <row r="22" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-    </row>
-    <row r="23" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="59"/>
-    </row>
-    <row r="24" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="59"/>
-    </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K26" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="51" t="s">
-        <v>35</v>
+      <c r="M70" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M10:M17"/>
     <mergeCell ref="E3:K3"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="L12:L53"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="M12:M53"/>
+    <mergeCell ref="M57:M60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Docs/09 Project Management/标准工时制作管理系统报价明细.xlsx
+++ b/Docs/09 Project Management/标准工时制作管理系统报价明细.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="系统开发报价明细分析表" sheetId="5" r:id="rId1"/>
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="\¥#,##0.00"/>
@@ -355,7 +355,7 @@
     <numFmt numFmtId="179" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1029,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,41 +1050,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,46 +1380,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="5.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125"/>
-    <col min="15" max="15" width="12.6640625"/>
+    <col min="14" max="14" width="9.375"/>
+    <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="2:13" ht="42" customHeight="1">
+      <c r="B1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-    </row>
-    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="2:13" ht="24" customHeight="1" thickBot="1">
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -1432,27 +1432,27 @@
         <v>43730</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="63" t="s">
+    <row r="3" spans="2:13" ht="38.25" customHeight="1">
+      <c r="B3" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="27"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="34.5" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="33.75" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1506,9 +1506,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="73"/>
-    </row>
-    <row r="6" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="63"/>
+    </row>
+    <row r="6" spans="2:13" ht="33.75" customHeight="1">
       <c r="B6" s="9">
         <v>1</v>
       </c>
@@ -1528,10 +1528,10 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="74"/>
-    </row>
-    <row r="7" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="71"/>
+      <c r="M6" s="70"/>
+    </row>
+    <row r="7" spans="2:13" ht="33.75" customHeight="1">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -1551,10 +1551,10 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="74"/>
-    </row>
-    <row r="8" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="72"/>
+      <c r="M7" s="70"/>
+    </row>
+    <row r="8" spans="2:13" ht="34.5" customHeight="1">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -1574,10 +1574,10 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="74"/>
-    </row>
-    <row r="9" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="72"/>
+      <c r="M8" s="70"/>
+    </row>
+    <row r="9" spans="2:13" ht="34.5" customHeight="1">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -1597,10 +1597,10 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="74"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="73"/>
+      <c r="M9" s="70"/>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="18" t="s">
@@ -1633,15 +1633,10 @@
         <f>SUM(K6:K8)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="20">
-        <v>1200</v>
-      </c>
-      <c r="M10" s="29">
-        <f>I10*L10</f>
-        <v>31200</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="20"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" ht="18.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1659,7 +1654,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" s="14">
         <v>5</v>
       </c>
@@ -1688,12 +1683,10 @@
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="65">
-        <v>1200</v>
-      </c>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L12" s="74"/>
+      <c r="M12" s="70"/>
+    </row>
+    <row r="13" spans="2:13">
       <c r="B13" s="14">
         <v>6</v>
       </c>
@@ -1722,10 +1715,10 @@
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="74"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L13" s="75"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14" s="14">
         <v>7</v>
       </c>
@@ -1754,10 +1747,10 @@
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="74"/>
-    </row>
-    <row r="15" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L14" s="75"/>
+      <c r="M14" s="70"/>
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15" s="14">
         <v>8</v>
       </c>
@@ -1786,10 +1779,10 @@
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="74"/>
-    </row>
-    <row r="16" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L15" s="75"/>
+      <c r="M15" s="70"/>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" s="14">
         <v>9</v>
       </c>
@@ -1818,10 +1811,10 @@
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="74"/>
-    </row>
-    <row r="17" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L16" s="75"/>
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="14">
         <v>10</v>
       </c>
@@ -1850,10 +1843,10 @@
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="74"/>
-    </row>
-    <row r="18" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L17" s="75"/>
+      <c r="M17" s="70"/>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="14">
         <v>11</v>
       </c>
@@ -1882,10 +1875,10 @@
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="74"/>
-    </row>
-    <row r="19" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L18" s="75"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="14">
         <v>12</v>
       </c>
@@ -1914,10 +1907,10 @@
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="74"/>
-    </row>
-    <row r="20" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L19" s="75"/>
+      <c r="M19" s="70"/>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="14">
         <v>13</v>
       </c>
@@ -1946,10 +1939,10 @@
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="74"/>
-    </row>
-    <row r="21" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L20" s="75"/>
+      <c r="M20" s="70"/>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="14">
         <v>14</v>
       </c>
@@ -1978,10 +1971,10 @@
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="74"/>
-    </row>
-    <row r="22" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L21" s="75"/>
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="14">
         <v>15</v>
       </c>
@@ -2010,10 +2003,10 @@
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="74"/>
-    </row>
-    <row r="23" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L22" s="75"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="14">
         <v>16</v>
       </c>
@@ -2042,10 +2035,10 @@
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="74"/>
-    </row>
-    <row r="24" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L23" s="75"/>
+      <c r="M23" s="70"/>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="14">
         <v>17</v>
       </c>
@@ -2074,10 +2067,10 @@
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="74"/>
-    </row>
-    <row r="25" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L24" s="75"/>
+      <c r="M24" s="70"/>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="14">
         <v>18</v>
       </c>
@@ -2106,10 +2099,10 @@
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="74"/>
-    </row>
-    <row r="26" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L25" s="75"/>
+      <c r="M25" s="70"/>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="14">
         <v>19</v>
       </c>
@@ -2138,10 +2131,10 @@
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="74"/>
-    </row>
-    <row r="27" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L26" s="75"/>
+      <c r="M26" s="70"/>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="14">
         <v>20</v>
       </c>
@@ -2170,10 +2163,10 @@
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="74"/>
-    </row>
-    <row r="28" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L27" s="75"/>
+      <c r="M27" s="70"/>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="14">
         <v>21</v>
       </c>
@@ -2202,10 +2195,10 @@
       </c>
       <c r="J28" s="31"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="74"/>
-    </row>
-    <row r="29" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L28" s="75"/>
+      <c r="M28" s="70"/>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="14">
         <v>22</v>
       </c>
@@ -2234,10 +2227,10 @@
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="74"/>
-    </row>
-    <row r="30" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L29" s="75"/>
+      <c r="M29" s="70"/>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="14">
         <v>23</v>
       </c>
@@ -2266,10 +2259,10 @@
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="74"/>
-    </row>
-    <row r="31" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L30" s="75"/>
+      <c r="M30" s="70"/>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="14">
         <v>24</v>
       </c>
@@ -2298,10 +2291,10 @@
       </c>
       <c r="J31" s="31"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="74"/>
-    </row>
-    <row r="32" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L31" s="75"/>
+      <c r="M31" s="70"/>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="14">
         <v>25</v>
       </c>
@@ -2330,10 +2323,10 @@
       </c>
       <c r="J32" s="31"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="74"/>
-    </row>
-    <row r="33" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L32" s="75"/>
+      <c r="M32" s="70"/>
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="14">
         <v>26</v>
       </c>
@@ -2362,10 +2355,10 @@
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="74"/>
-    </row>
-    <row r="34" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L33" s="75"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="14">
         <v>27</v>
       </c>
@@ -2394,10 +2387,10 @@
       </c>
       <c r="J34" s="31"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="74"/>
-    </row>
-    <row r="35" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L34" s="75"/>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="14">
         <v>28</v>
       </c>
@@ -2426,10 +2419,10 @@
       </c>
       <c r="J35" s="31"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="74"/>
-    </row>
-    <row r="36" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L35" s="75"/>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="14">
         <v>29</v>
       </c>
@@ -2458,10 +2451,10 @@
       </c>
       <c r="J36" s="31"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="74"/>
-    </row>
-    <row r="37" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L36" s="75"/>
+      <c r="M36" s="70"/>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="14">
         <v>30</v>
       </c>
@@ -2490,10 +2483,10 @@
       </c>
       <c r="J37" s="31"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="74"/>
-    </row>
-    <row r="38" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L37" s="75"/>
+      <c r="M37" s="70"/>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="14">
         <v>31</v>
       </c>
@@ -2522,10 +2515,10 @@
       </c>
       <c r="J38" s="31"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="74"/>
-    </row>
-    <row r="39" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L38" s="75"/>
+      <c r="M38" s="70"/>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="14">
         <v>32</v>
       </c>
@@ -2554,10 +2547,10 @@
       </c>
       <c r="J39" s="31"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="74"/>
-    </row>
-    <row r="40" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L39" s="75"/>
+      <c r="M39" s="70"/>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="14">
         <v>33</v>
       </c>
@@ -2586,10 +2579,10 @@
       </c>
       <c r="J40" s="31"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="74"/>
-    </row>
-    <row r="41" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L40" s="75"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="14">
         <v>34</v>
       </c>
@@ -2618,10 +2611,10 @@
       </c>
       <c r="J41" s="31"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="74"/>
-    </row>
-    <row r="42" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L41" s="75"/>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="14">
         <v>35</v>
       </c>
@@ -2650,10 +2643,10 @@
       </c>
       <c r="J42" s="31"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="74"/>
-    </row>
-    <row r="43" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L42" s="75"/>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="14">
         <v>36</v>
       </c>
@@ -2682,10 +2675,10 @@
       </c>
       <c r="J43" s="31"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="74"/>
-    </row>
-    <row r="44" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L43" s="75"/>
+      <c r="M43" s="70"/>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="14">
         <v>37</v>
       </c>
@@ -2714,10 +2707,10 @@
       </c>
       <c r="J44" s="31"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="74"/>
-    </row>
-    <row r="45" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L44" s="75"/>
+      <c r="M44" s="70"/>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="14">
         <v>38</v>
       </c>
@@ -2746,10 +2739,10 @@
       </c>
       <c r="J45" s="31"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="74"/>
-    </row>
-    <row r="46" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L45" s="75"/>
+      <c r="M45" s="70"/>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="14">
         <v>39</v>
       </c>
@@ -2778,10 +2771,10 @@
       </c>
       <c r="J46" s="31"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="74"/>
-    </row>
-    <row r="47" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L46" s="75"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="14">
         <v>40</v>
       </c>
@@ -2810,14 +2803,14 @@
       </c>
       <c r="J47" s="31"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="74"/>
-    </row>
-    <row r="48" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L47" s="75"/>
+      <c r="M47" s="70"/>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="14">
         <v>41</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="64" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="15"/>
@@ -2842,14 +2835,14 @@
       </c>
       <c r="J48" s="31"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="74"/>
-    </row>
-    <row r="49" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L48" s="75"/>
+      <c r="M48" s="70"/>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49" s="14">
         <v>42</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="64" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="15"/>
@@ -2874,14 +2867,14 @@
       </c>
       <c r="J49" s="31"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="74"/>
-    </row>
-    <row r="50" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L49" s="75"/>
+      <c r="M49" s="70"/>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50" s="14">
         <v>43</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="64" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="15"/>
@@ -2906,10 +2899,10 @@
       </c>
       <c r="J50" s="31"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="74"/>
-    </row>
-    <row r="51" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L50" s="75"/>
+      <c r="M50" s="70"/>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51" s="14">
         <v>44</v>
       </c>
@@ -2938,10 +2931,10 @@
       </c>
       <c r="J51" s="31"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="74"/>
-    </row>
-    <row r="52" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L51" s="75"/>
+      <c r="M51" s="70"/>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52" s="14">
         <v>45</v>
       </c>
@@ -2970,10 +2963,10 @@
       </c>
       <c r="J52" s="31"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="74"/>
-    </row>
-    <row r="53" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L52" s="75"/>
+      <c r="M52" s="70"/>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53" s="14">
         <v>46</v>
       </c>
@@ -3002,10 +2995,10 @@
       </c>
       <c r="J53" s="31"/>
       <c r="K53" s="3"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="74"/>
-    </row>
-    <row r="54" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L53" s="76"/>
+      <c r="M53" s="70"/>
+    </row>
+    <row r="54" spans="2:13" ht="39" customHeight="1">
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="18" t="s">
@@ -3033,15 +3026,10 @@
       </c>
       <c r="J54" s="32"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="20">
-        <v>1200</v>
-      </c>
-      <c r="M54" s="29">
-        <f>I54*L54</f>
-        <v>167399.99999999988</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="L54" s="20"/>
+      <c r="M54" s="29"/>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55" s="14"/>
       <c r="C55" s="58"/>
       <c r="D55" s="15"/>
@@ -3053,9 +3041,9 @@
       <c r="J55" s="31"/>
       <c r="K55" s="3"/>
       <c r="L55" s="40"/>
-      <c r="M55" s="76"/>
-    </row>
-    <row r="56" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="65"/>
+    </row>
+    <row r="56" spans="2:13" ht="33.75" customHeight="1">
       <c r="B56" s="61" t="s">
         <v>75</v>
       </c>
@@ -3071,9 +3059,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="20"/>
-      <c r="M56" s="76"/>
-    </row>
-    <row r="57" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="65"/>
+    </row>
+    <row r="57" spans="2:13" ht="33.75" customHeight="1">
       <c r="B57" s="9">
         <v>47</v>
       </c>
@@ -3093,10 +3081,10 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="16"/>
-      <c r="L57" s="66"/>
+      <c r="L57" s="71"/>
       <c r="M57" s="77"/>
     </row>
-    <row r="58" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" ht="33.75" customHeight="1">
       <c r="B58" s="9">
         <v>48</v>
       </c>
@@ -3116,10 +3104,10 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="67"/>
+      <c r="L58" s="72"/>
       <c r="M58" s="77"/>
     </row>
-    <row r="59" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" ht="33.75" customHeight="1">
       <c r="B59" s="9">
         <v>49</v>
       </c>
@@ -3139,10 +3127,10 @@
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="16"/>
-      <c r="L59" s="67"/>
+      <c r="L59" s="72"/>
       <c r="M59" s="77"/>
     </row>
-    <row r="60" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13" ht="33.75" customHeight="1">
       <c r="B60" s="9">
         <v>50</v>
       </c>
@@ -3162,10 +3150,10 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="16"/>
-      <c r="L60" s="68"/>
+      <c r="L60" s="73"/>
       <c r="M60" s="77"/>
     </row>
-    <row r="61" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13" ht="39" customHeight="1">
       <c r="B61" s="11"/>
       <c r="C61" s="12"/>
       <c r="D61" s="18" t="s">
@@ -3193,15 +3181,10 @@
       </c>
       <c r="J61" s="32"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="20">
-        <v>1200</v>
-      </c>
-      <c r="M61" s="29">
-        <f>I61*L61</f>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="20"/>
+      <c r="M61" s="29"/>
+    </row>
+    <row r="62" spans="2:13">
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="19"/>
@@ -3215,7 +3198,7 @@
       <c r="L62" s="33"/>
       <c r="M62" s="30"/>
     </row>
-    <row r="63" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13" ht="31.5" customHeight="1">
       <c r="B63" s="9"/>
       <c r="C63" s="43"/>
       <c r="D63" s="7"/>
@@ -3229,7 +3212,7 @@
       <c r="L63" s="21"/>
       <c r="M63" s="34"/>
     </row>
-    <row r="64" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13" ht="32.25" customHeight="1">
       <c r="B64" s="54" t="s">
         <v>27</v>
       </c>
@@ -3247,7 +3230,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="34"/>
     </row>
-    <row r="65" spans="2:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" ht="28.5" customHeight="1" thickBot="1">
       <c r="B65" s="23"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
@@ -3263,7 +3246,7 @@
       <c r="L65" s="36"/>
       <c r="M65" s="37"/>
     </row>
-    <row r="66" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" ht="28.5" customHeight="1">
       <c r="B66" s="50"/>
       <c r="C66" s="50"/>
       <c r="D66" s="50"/>
@@ -3277,7 +3260,7 @@
       <c r="L66" s="50"/>
       <c r="M66" s="52"/>
     </row>
-    <row r="67" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13" ht="28.5" customHeight="1">
       <c r="B67" s="50"/>
       <c r="C67" s="50"/>
       <c r="D67" s="50"/>
@@ -3291,8 +3274,8 @@
       <c r="L67" s="50"/>
       <c r="M67" s="52"/>
     </row>
-    <row r="68" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13" ht="15" thickBot="1"/>
+    <row r="69" spans="2:13" ht="20.25" customHeight="1">
       <c r="K69" s="38" t="s">
         <v>16</v>
       </c>
@@ -3303,7 +3286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" ht="56.25" customHeight="1" thickBot="1">
       <c r="K70" s="39" t="s">
         <v>17</v>
       </c>
@@ -3316,15 +3299,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L12:L53"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="M12:M53"/>
+    <mergeCell ref="M57:M60"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="L6:L9"/>
-    <mergeCell ref="L12:L53"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="M12:M53"/>
-    <mergeCell ref="M57:M60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
